--- a/data/trans_orig/P78C7_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P78C7_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F2C9023-9E3B-4839-9300-DDD8C5CA1854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAEEBD52-EA2F-4A09-B870-8B63630FEECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A986BD10-B47F-48EE-A45A-5848294D2FBE}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{92205E30-DCA2-457E-B89F-717CE68C665B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -98,34 +98,34 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
+    <t>60,17%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
   </si>
   <si>
     <t>76,75%</t>
   </si>
   <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
   </si>
   <si>
     <t>23,25%</t>
   </si>
   <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>62,98%</t>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>65,98%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -149,34 +149,34 @@
     <t>30,57%</t>
   </si>
   <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
   </si>
   <si>
     <t>82,92%</t>
   </si>
   <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
   </si>
   <si>
     <t>17,08%</t>
   </si>
   <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -591,7 +591,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D3EB66-3D90-49D1-95BD-872165D29508}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDB0870F-7225-4144-BA25-D3C4830E204A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -725,7 +725,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>1363</v>
+        <v>1163</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>12</v>
@@ -740,7 +740,7 @@
         <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>1363</v>
+        <v>1163</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>12</v>
@@ -823,7 +823,7 @@
         <v>2</v>
       </c>
       <c r="I6" s="7">
-        <v>1363</v>
+        <v>1163</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>14</v>
@@ -838,7 +838,7 @@
         <v>2</v>
       </c>
       <c r="N6" s="7">
-        <v>1363</v>
+        <v>1163</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>14</v>
@@ -861,7 +861,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>6009</v>
+        <v>5022</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>20</v>
@@ -876,7 +876,7 @@
         <v>7</v>
       </c>
       <c r="I7" s="7">
-        <v>5716</v>
+        <v>4840</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>12</v>
@@ -891,7 +891,7 @@
         <v>12</v>
       </c>
       <c r="N7" s="7">
-        <v>11725</v>
+        <v>9862</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>23</v>
@@ -912,7 +912,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>3493</v>
+        <v>3325</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>25</v>
@@ -942,7 +942,7 @@
         <v>2</v>
       </c>
       <c r="N8" s="7">
-        <v>3493</v>
+        <v>3325</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>28</v>
@@ -963,7 +963,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="7">
-        <v>9502</v>
+        <v>8347</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>14</v>
@@ -978,7 +978,7 @@
         <v>7</v>
       </c>
       <c r="I9" s="7">
-        <v>5716</v>
+        <v>4840</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>14</v>
@@ -993,7 +993,7 @@
         <v>14</v>
       </c>
       <c r="N9" s="7">
-        <v>15218</v>
+        <v>13187</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>14</v>
@@ -1016,7 +1016,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>4665</v>
+        <v>4026</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>12</v>
@@ -1031,7 +1031,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>785</v>
+        <v>670</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>12</v>
@@ -1046,7 +1046,7 @@
         <v>5</v>
       </c>
       <c r="N10" s="7">
-        <v>5450</v>
+        <v>4696</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>12</v>
@@ -1118,7 +1118,7 @@
         <v>4</v>
       </c>
       <c r="D12" s="7">
-        <v>4665</v>
+        <v>4026</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>14</v>
@@ -1133,7 +1133,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="7">
-        <v>785</v>
+        <v>670</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>14</v>
@@ -1148,7 +1148,7 @@
         <v>5</v>
       </c>
       <c r="N12" s="7">
-        <v>5450</v>
+        <v>4696</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>14</v>
@@ -1171,7 +1171,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="7">
-        <v>10674</v>
+        <v>9047</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>37</v>
@@ -1186,7 +1186,7 @@
         <v>10</v>
       </c>
       <c r="I13" s="7">
-        <v>7864</v>
+        <v>6673</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>12</v>
@@ -1201,7 +1201,7 @@
         <v>19</v>
       </c>
       <c r="N13" s="7">
-        <v>18538</v>
+        <v>15721</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>40</v>
@@ -1222,7 +1222,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="7">
-        <v>3492</v>
+        <v>3325</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>42</v>
@@ -1252,7 +1252,7 @@
         <v>2</v>
       </c>
       <c r="N14" s="7">
-        <v>3493</v>
+        <v>3325</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>45</v>
@@ -1273,7 +1273,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="7">
-        <v>14166</v>
+        <v>12372</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>14</v>
@@ -1288,7 +1288,7 @@
         <v>10</v>
       </c>
       <c r="I15" s="7">
-        <v>7864</v>
+        <v>6673</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>14</v>
@@ -1303,7 +1303,7 @@
         <v>21</v>
       </c>
       <c r="N15" s="7">
-        <v>22031</v>
+        <v>19046</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>14</v>
